--- a/@Datasets/essay_score_master_file.xlsx
+++ b/@Datasets/essay_score_master_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CPL Member\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D7681EED-1479-4975-B7E8-396C608445CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AA5659F-1F5F-4DFF-B14F-6612DF0233AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="181">
   <si>
     <t>Subject</t>
   </si>
@@ -509,6 +509,60 @@
   </si>
   <si>
     <t>T145_BH_WB</t>
+  </si>
+  <si>
+    <t>T068_IH_WB</t>
+  </si>
+  <si>
+    <t>T068_IH_DT</t>
+  </si>
+  <si>
+    <t>T099_IL_WB</t>
+  </si>
+  <si>
+    <t>T099_IL_DT</t>
+  </si>
+  <si>
+    <t>T113_BL_WB</t>
+  </si>
+  <si>
+    <t>T113_BL_DT</t>
+  </si>
+  <si>
+    <t>T114_BL_WB</t>
+  </si>
+  <si>
+    <t>T114_BL_DT</t>
+  </si>
+  <si>
+    <t>T132_IH_WB</t>
+  </si>
+  <si>
+    <t>T132_IH_DT</t>
+  </si>
+  <si>
+    <t>T174_BL_WB</t>
+  </si>
+  <si>
+    <t>T174_BL_DT</t>
+  </si>
+  <si>
+    <t>T051_BL_WB</t>
+  </si>
+  <si>
+    <t>T051_BL_DT</t>
+  </si>
+  <si>
+    <t>T082_BH_WB</t>
+  </si>
+  <si>
+    <t>T082_BH_DT</t>
+  </si>
+  <si>
+    <t>T162_IL_WB</t>
+  </si>
+  <si>
+    <t>T162_IL_DT</t>
   </si>
 </sst>
 </file>
@@ -1349,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,23 +2000,24 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"Advisory (3/6)"</f>
+        <v>Advisory (3/6)</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
         <v>13</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21">
-        <v>19</v>
-      </c>
       <c r="G21" t="s">
         <v>11</v>
       </c>
@@ -1970,27 +2025,27 @@
         <v>11</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
         <v>11</v>
@@ -2004,22 +2059,23 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"Advisory (1/6)"</f>
+        <v>Advisory (1/6)</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -2028,148 +2084,148 @@
         <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>157</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B26" t="str">
         <f>"Advisory (4/6)"</f>
         <v>Advisory (4/6)</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <v>2</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <v>43</v>
       </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>158</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B27" t="str">
         <f>"Advisory (1/6)"</f>
         <v>Advisory (1/6)</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <v>6</v>
       </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26">
-        <v>12</v>
-      </c>
-      <c r="F26">
-        <v>7</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
         <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>11</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
@@ -2180,22 +2236,22 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -2209,10 +2265,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2221,10 +2277,10 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
@@ -2238,22 +2294,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -2267,22 +2323,23 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
+        <v>176</v>
+      </c>
+      <c r="B32" t="str">
+        <f>"Advisory (5/6)"</f>
+        <v>Advisory (5/6)</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F32">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
@@ -2296,22 +2353,23 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
+        <v>175</v>
+      </c>
+      <c r="B33" t="str">
+        <f>"Advisory (2/6)"</f>
+        <v>Advisory (2/6)</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
@@ -2325,22 +2383,22 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
@@ -2354,22 +2412,22 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
@@ -2383,28 +2441,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I36" t="s">
         <v>11</v>
@@ -2412,7 +2470,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -2421,13 +2479,13 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
@@ -2436,12 +2494,12 @@
         <v>11</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -2453,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2470,13 +2528,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2485,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="F39">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
@@ -2499,28 +2557,28 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>6</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I40" t="s">
         <v>11</v>
@@ -2528,22 +2586,22 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -2552,56 +2610,56 @@
         <v>11</v>
       </c>
       <c r="I41" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="I42" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
@@ -2610,33 +2668,33 @@
         <v>11</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F44">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I44" t="s">
         <v>11</v>
@@ -2644,22 +2702,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G45" t="s">
         <v>11</v>
@@ -2673,51 +2731,51 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="H46" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="I46" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -2726,27 +2784,28 @@
         <v>11</v>
       </c>
       <c r="I47" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
+        <v>164</v>
+      </c>
+      <c r="B48" t="str">
+        <f>"Advisory (5/6)"</f>
+        <v>Advisory (5/6)</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
@@ -2755,27 +2814,28 @@
         <v>11</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" t="s">
-        <v>13</v>
+        <v>163</v>
+      </c>
+      <c r="B49" t="str">
+        <f>"Advisory (3/6)"</f>
+        <v>Advisory (3/6)</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
@@ -2784,33 +2844,33 @@
         <v>11</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F50">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
       </c>
       <c r="H50" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I50" t="s">
         <v>11</v>
@@ -2818,22 +2878,22 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
@@ -2847,22 +2907,22 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>4</v>
       </c>
       <c r="E52">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
@@ -2876,22 +2936,22 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
@@ -2900,56 +2960,56 @@
         <v>11</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I54" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
@@ -2958,27 +3018,27 @@
         <v>11</v>
       </c>
       <c r="I55" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
         <v>11</v>
@@ -2992,10 +3052,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3004,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
         <v>11</v>
@@ -3021,22 +3081,22 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E58">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F58">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G58" t="s">
         <v>11</v>
@@ -3050,22 +3110,22 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
@@ -3074,27 +3134,28 @@
         <v>11</v>
       </c>
       <c r="I59" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" t="s">
-        <v>20</v>
+        <v>178</v>
+      </c>
+      <c r="B60" t="str">
+        <f>"Advisory (4/6)"</f>
+        <v>Advisory (4/6)</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>4</v>
       </c>
       <c r="E60">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F60">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
@@ -3108,22 +3169,23 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" t="s">
-        <v>18</v>
+        <v>177</v>
+      </c>
+      <c r="B61" t="str">
+        <f>"Advisory (3/6)"</f>
+        <v>Advisory (3/6)</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
         <v>3</v>
       </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
       <c r="F61">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
         <v>11</v>
@@ -3137,7 +3199,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
@@ -3146,10 +3208,10 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F62">
         <v>15</v>
@@ -3158,7 +3220,7 @@
         <v>11</v>
       </c>
       <c r="H62" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I62" t="s">
         <v>11</v>
@@ -3166,10 +3228,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3178,39 +3240,39 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G63" t="s">
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I63" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F64">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
@@ -3219,15 +3281,15 @@
         <v>11</v>
       </c>
       <c r="I64" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3236,10 +3298,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G65" t="s">
         <v>11</v>
@@ -3253,22 +3315,22 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E66">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
         <v>11</v>
@@ -3282,22 +3344,22 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G67" t="s">
         <v>11</v>
@@ -3311,22 +3373,22 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E68">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F68">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
         <v>11</v>
@@ -3340,22 +3402,22 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
@@ -3364,27 +3426,27 @@
         <v>11</v>
       </c>
       <c r="I69" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
@@ -3398,7 +3460,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
         <v>18</v>
@@ -3410,45 +3472,45 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" t="s">
         <v>23</v>
       </c>
-      <c r="H71" t="s">
-        <v>11</v>
-      </c>
       <c r="I71" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F72">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
         <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I72" t="s">
         <v>14</v>
@@ -3456,7 +3518,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -3468,10 +3530,10 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
@@ -3480,27 +3542,27 @@
         <v>11</v>
       </c>
       <c r="I73" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F74">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G74" t="s">
         <v>11</v>
@@ -3509,12 +3571,12 @@
         <v>11</v>
       </c>
       <c r="I74" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
@@ -3523,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G75" t="s">
         <v>11</v>
@@ -3538,27 +3600,27 @@
         <v>11</v>
       </c>
       <c r="I75" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
         <v>7</v>
       </c>
-      <c r="E76">
-        <v>8</v>
-      </c>
       <c r="F76">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G76" t="s">
         <v>11</v>
@@ -3572,22 +3634,22 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G77" t="s">
         <v>11</v>
@@ -3601,36 +3663,36 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F78">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I78" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
@@ -3645,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G79" t="s">
         <v>23</v>
@@ -3654,27 +3716,28 @@
         <v>11</v>
       </c>
       <c r="I79" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" t="s">
-        <v>20</v>
+        <v>166</v>
+      </c>
+      <c r="B80" t="str">
+        <f>"Advisory (4/6)"</f>
+        <v>Advisory (4/6)</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
@@ -3688,25 +3751,26 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>93</v>
-      </c>
-      <c r="B81" t="s">
-        <v>16</v>
+        <v>165</v>
+      </c>
+      <c r="B81" t="str">
+        <f>"Advisory (2/6)"</f>
+        <v>Advisory (2/6)</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H81" t="s">
         <v>11</v>
@@ -3717,7 +3781,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
         <v>13</v>
@@ -3729,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
         <v>11</v>
@@ -3746,10 +3810,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3758,10 +3822,10 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G83" t="s">
         <v>11</v>
@@ -3775,51 +3839,51 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I84" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
@@ -3833,22 +3897,22 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F86">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
@@ -3862,22 +3926,22 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
         <v>18</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
@@ -3891,36 +3955,36 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G88" t="s">
         <v>11</v>
       </c>
       <c r="H88" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I88" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
         <v>18</v>
@@ -3935,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
         <v>23</v>
@@ -3944,27 +4008,27 @@
         <v>11</v>
       </c>
       <c r="I89" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E90">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="s">
         <v>11</v>
@@ -3973,30 +4037,30 @@
         <v>11</v>
       </c>
       <c r="I90" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>4</v>
       </c>
       <c r="G91" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H91" t="s">
         <v>11</v>
@@ -4007,51 +4071,51 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="s">
         <v>11</v>
       </c>
       <c r="H92" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I92" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
@@ -4065,22 +4129,23 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>106</v>
-      </c>
-      <c r="B94" t="s">
-        <v>16</v>
+        <v>168</v>
+      </c>
+      <c r="B94" t="str">
+        <f>"Advisory (4/6)"</f>
+        <v>Advisory (4/6)</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G94" t="s">
         <v>11</v>
@@ -4094,10 +4159,11 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" t="s">
-        <v>18</v>
+        <v>167</v>
+      </c>
+      <c r="B95" t="str">
+        <f>"Advisory (2/6)"</f>
+        <v>Advisory (2/6)</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -4106,13 +4172,13 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F95">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G95" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H95" t="s">
         <v>11</v>
@@ -4123,23 +4189,23 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B96" t="str">
         <f>"Advisory (5/6)"</f>
         <v>Advisory (5/6)</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F96">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G96" t="s">
         <v>11</v>
@@ -4148,19 +4214,19 @@
         <v>11</v>
       </c>
       <c r="I96" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B97" t="str">
         <f>"Advisory (3/6)"</f>
         <v>Advisory (3/6)</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4183,7 +4249,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>40</v>
@@ -4192,19 +4258,19 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
       </c>
       <c r="H98" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I98" t="s">
         <v>23</v>
@@ -4212,22 +4278,22 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G99" t="s">
         <v>11</v>
@@ -4236,12 +4302,12 @@
         <v>11</v>
       </c>
       <c r="I99" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
@@ -4250,13 +4316,13 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E100">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F100">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G100" t="s">
         <v>11</v>
@@ -4270,22 +4336,22 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G101" t="s">
         <v>11</v>
@@ -4299,19 +4365,19 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
         <v>4</v>
-      </c>
-      <c r="E102">
-        <v>6</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -4328,25 +4394,25 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>18</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G103" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H103" t="s">
         <v>11</v>
@@ -4357,22 +4423,22 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>40</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E104">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" t="s">
         <v>11</v>
@@ -4386,7 +4452,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>18</v>
@@ -4395,13 +4461,13 @@
         <v>2</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G105" t="s">
         <v>11</v>
@@ -4415,28 +4481,28 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E106">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" t="s">
         <v>11</v>
       </c>
       <c r="H106" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I106" t="s">
         <v>11</v>
@@ -4444,22 +4510,22 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F107">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G107" t="s">
         <v>11</v>
@@ -4468,12 +4534,12 @@
         <v>11</v>
       </c>
       <c r="I107" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
@@ -4482,13 +4548,13 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F108">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
         <v>11</v>
@@ -4502,10 +4568,10 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -4514,40 +4580,40 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G109" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H109" t="s">
         <v>11</v>
       </c>
       <c r="I109" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B110" t="str">
         <f>"Advisory (5/6)"</f>
         <v>Advisory (5/6)</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G110" t="s">
         <v>11</v>
@@ -4556,527 +4622,531 @@
         <v>11</v>
       </c>
       <c r="I110" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" t="str">
+        <f>"Advisory (3/6)"</f>
+        <v>Advisory (3/6)</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>172</v>
+      </c>
+      <c r="B112" t="str">
+        <f>"(5/6)"</f>
+        <v>(5/6)</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>171</v>
+      </c>
+      <c r="B113" t="str">
+        <f>"Advisory (3/6)"</f>
+        <v>Advisory (3/6)</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>108</v>
+      </c>
+      <c r="B114" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>11</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>109</v>
+      </c>
+      <c r="B115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>110</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>16</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>111</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>112</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>6</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>113</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>4</v>
+      </c>
+      <c r="G119" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" t="s">
+        <v>11</v>
+      </c>
+      <c r="I119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>114</v>
+      </c>
+      <c r="B120" t="s">
+        <v>40</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>7</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>115</v>
+      </c>
+      <c r="B121" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>5</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" t="s">
+        <v>11</v>
+      </c>
+      <c r="I121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>116</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>7</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" t="s">
+        <v>23</v>
+      </c>
+      <c r="I122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>117</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>118</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>9</v>
+      </c>
+      <c r="F124">
+        <v>11</v>
+      </c>
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>119</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <v>19</v>
+      </c>
+      <c r="G125" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>161</v>
+      </c>
+      <c r="B126" t="str">
+        <f>"Advisory (5/6)"</f>
+        <v>Advisory (5/6)</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>12</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" t="s">
+        <v>11</v>
+      </c>
+      <c r="I126" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>162</v>
       </c>
-      <c r="B111" t="str">
+      <c r="B127" t="str">
         <f>"Advisory (2/6)"</f>
         <v>Advisory (2/6)</v>
       </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
         <v>7</v>
       </c>
-      <c r="G111" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" t="s">
-        <v>11</v>
-      </c>
-      <c r="I111" t="s">
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>120</v>
-      </c>
-      <c r="B112" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112">
-        <v>3</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>8</v>
-      </c>
-      <c r="F112">
-        <v>31</v>
-      </c>
-      <c r="G112" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" t="s">
-        <v>11</v>
-      </c>
-      <c r="I112" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>121</v>
-      </c>
-      <c r="B113" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>2</v>
-      </c>
-      <c r="E113">
-        <v>3</v>
-      </c>
-      <c r="F113">
-        <v>4</v>
-      </c>
-      <c r="G113" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" t="s">
-        <v>11</v>
-      </c>
-      <c r="I113" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>122</v>
-      </c>
-      <c r="B114" t="s">
-        <v>40</v>
-      </c>
-      <c r="C114">
-        <v>3</v>
-      </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-      <c r="E114">
-        <v>12</v>
-      </c>
-      <c r="F114">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" t="s">
-        <v>11</v>
-      </c>
-      <c r="I114" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>123</v>
-      </c>
-      <c r="B115" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>2</v>
-      </c>
-      <c r="F115">
-        <v>26</v>
-      </c>
-      <c r="G115" t="s">
-        <v>11</v>
-      </c>
-      <c r="H115" t="s">
-        <v>11</v>
-      </c>
-      <c r="I115" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>124</v>
-      </c>
-      <c r="B116" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116">
-        <v>6</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>24</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" t="s">
-        <v>23</v>
-      </c>
-      <c r="I116" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>125</v>
-      </c>
-      <c r="B117" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-      <c r="F117">
-        <v>15</v>
-      </c>
-      <c r="G117" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" t="s">
-        <v>11</v>
-      </c>
-      <c r="I117" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>126</v>
-      </c>
-      <c r="B118" t="s">
-        <v>20</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>2</v>
-      </c>
-      <c r="E118">
-        <v>12</v>
-      </c>
-      <c r="F118">
-        <v>15</v>
-      </c>
-      <c r="G118" t="s">
-        <v>11</v>
-      </c>
-      <c r="H118" t="s">
-        <v>11</v>
-      </c>
-      <c r="I118" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>127</v>
-      </c>
-      <c r="B119" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" t="s">
-        <v>11</v>
-      </c>
-      <c r="I119" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>128</v>
-      </c>
-      <c r="B120" t="s">
-        <v>40</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>3</v>
-      </c>
-      <c r="E120">
-        <v>17</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120" t="s">
-        <v>11</v>
-      </c>
-      <c r="H120" t="s">
-        <v>11</v>
-      </c>
-      <c r="I120" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>129</v>
-      </c>
-      <c r="B121" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121">
-        <v>3</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>4</v>
-      </c>
-      <c r="G121" t="s">
-        <v>11</v>
-      </c>
-      <c r="H121" t="s">
-        <v>11</v>
-      </c>
-      <c r="I121" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>130</v>
-      </c>
-      <c r="B122" t="s">
-        <v>16</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="E122">
-        <v>7</v>
-      </c>
-      <c r="F122">
-        <v>6</v>
-      </c>
-      <c r="G122" t="s">
-        <v>11</v>
-      </c>
-      <c r="H122" t="s">
-        <v>11</v>
-      </c>
-      <c r="I122" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>131</v>
-      </c>
-      <c r="B123" t="s">
-        <v>13</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>4</v>
-      </c>
-      <c r="G123" t="s">
-        <v>11</v>
-      </c>
-      <c r="H123" t="s">
-        <v>11</v>
-      </c>
-      <c r="I123" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>132</v>
-      </c>
-      <c r="B124" t="s">
-        <v>20</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>2</v>
-      </c>
-      <c r="E124">
-        <v>9</v>
-      </c>
-      <c r="F124">
-        <v>51</v>
-      </c>
-      <c r="G124" t="s">
-        <v>11</v>
-      </c>
-      <c r="H124" t="s">
-        <v>23</v>
-      </c>
-      <c r="I124" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>133</v>
-      </c>
-      <c r="B125" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125">
-        <v>2</v>
-      </c>
-      <c r="D125">
-        <v>2</v>
-      </c>
-      <c r="E125">
-        <v>4</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125" t="s">
-        <v>11</v>
-      </c>
-      <c r="H125" t="s">
-        <v>23</v>
-      </c>
-      <c r="I125" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>134</v>
-      </c>
-      <c r="B126" t="s">
-        <v>40</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
-        <v>2</v>
-      </c>
-      <c r="E126">
-        <v>8</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126" t="s">
-        <v>11</v>
-      </c>
-      <c r="H126" t="s">
-        <v>23</v>
-      </c>
-      <c r="I126" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>135</v>
-      </c>
-      <c r="B127" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127" t="s">
-        <v>23</v>
-      </c>
-      <c r="H127" t="s">
-        <v>23</v>
-      </c>
-      <c r="I127" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B128" t="s">
         <v>20</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
         <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I128" t="s">
         <v>11</v>
@@ -5084,7 +5154,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B129" t="s">
         <v>18</v>
@@ -5093,13 +5163,13 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E129">
         <v>3</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G129" t="s">
         <v>11</v>
@@ -5113,22 +5183,22 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
         <v>2</v>
       </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
       <c r="E130">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G130" t="s">
         <v>11</v>
@@ -5142,7 +5212,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
@@ -5154,10 +5224,10 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G131" t="s">
         <v>11</v>
@@ -5171,28 +5241,28 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G132" t="s">
         <v>11</v>
       </c>
       <c r="H132" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I132" t="s">
         <v>11</v>
@@ -5200,10 +5270,10 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -5215,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G133" t="s">
         <v>11</v>
@@ -5224,27 +5294,27 @@
         <v>11</v>
       </c>
       <c r="I133" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F134">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G134" t="s">
         <v>11</v>
@@ -5258,19 +5328,19 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135">
         <v>1</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -5287,22 +5357,22 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B136" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E136">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F136">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G136" t="s">
         <v>11</v>
@@ -5316,22 +5386,22 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
@@ -5345,22 +5415,22 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B138" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
@@ -5374,22 +5444,22 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B139" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
       <c r="E139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G139" t="s">
         <v>11</v>
@@ -5403,7 +5473,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B140" t="s">
         <v>20</v>
@@ -5412,48 +5482,48 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="G140" t="s">
         <v>11</v>
       </c>
       <c r="H140" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I140" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
       <c r="E141">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F141">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G141" t="s">
         <v>11</v>
       </c>
       <c r="H141" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I141" t="s">
         <v>11</v>
@@ -5461,7 +5531,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B142" t="s">
         <v>40</v>
@@ -5470,54 +5540,641 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E142">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F142">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G142" t="s">
         <v>11</v>
       </c>
       <c r="H142" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I142" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>135</v>
+      </c>
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143" t="s">
+        <v>23</v>
+      </c>
+      <c r="H143" t="s">
+        <v>23</v>
+      </c>
+      <c r="I143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>136</v>
+      </c>
+      <c r="B144" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>9</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144" t="s">
+        <v>23</v>
+      </c>
+      <c r="I144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>137</v>
+      </c>
+      <c r="B145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" t="s">
+        <v>11</v>
+      </c>
+      <c r="I145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>180</v>
+      </c>
+      <c r="B146" t="str">
+        <f>"Advisory (5/6)"</f>
+        <v>Advisory (5/6)</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146">
+        <v>7</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>11</v>
+      </c>
+      <c r="H146" t="s">
+        <v>11</v>
+      </c>
+      <c r="I146" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>179</v>
+      </c>
+      <c r="B147" t="str">
+        <f>"Advisory (2/6)"</f>
+        <v>Advisory (2/6)</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>6</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+      <c r="H147" t="s">
+        <v>11</v>
+      </c>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>138</v>
+      </c>
+      <c r="B148" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>10</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148" t="s">
+        <v>11</v>
+      </c>
+      <c r="H148" t="s">
+        <v>11</v>
+      </c>
+      <c r="I148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>139</v>
+      </c>
+      <c r="B149" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>11</v>
+      </c>
+      <c r="H149" t="s">
+        <v>11</v>
+      </c>
+      <c r="I149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>140</v>
+      </c>
+      <c r="B150" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>5</v>
+      </c>
+      <c r="G150" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" t="s">
+        <v>11</v>
+      </c>
+      <c r="I150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>141</v>
+      </c>
+      <c r="B151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151" t="s">
+        <v>11</v>
+      </c>
+      <c r="H151" t="s">
+        <v>11</v>
+      </c>
+      <c r="I151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>142</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+      <c r="F152">
+        <v>6</v>
+      </c>
+      <c r="G152" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" t="s">
+        <v>11</v>
+      </c>
+      <c r="I152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>143</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
+        <v>11</v>
+      </c>
+      <c r="H153" t="s">
+        <v>11</v>
+      </c>
+      <c r="I153" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>144</v>
+      </c>
+      <c r="B154" t="s">
+        <v>145</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>10</v>
+      </c>
+      <c r="F154">
+        <v>19</v>
+      </c>
+      <c r="G154" t="s">
+        <v>11</v>
+      </c>
+      <c r="H154" t="s">
+        <v>11</v>
+      </c>
+      <c r="I154" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>146</v>
+      </c>
+      <c r="B155" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155">
+        <v>7</v>
+      </c>
+      <c r="G155" t="s">
+        <v>11</v>
+      </c>
+      <c r="H155" t="s">
+        <v>11</v>
+      </c>
+      <c r="I155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>174</v>
+      </c>
+      <c r="B156" t="str">
+        <f>"Advisory (4/6)"</f>
+        <v>Advisory (4/6)</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>8</v>
+      </c>
+      <c r="F156">
+        <v>11</v>
+      </c>
+      <c r="G156" t="s">
+        <v>11</v>
+      </c>
+      <c r="H156" t="s">
+        <v>11</v>
+      </c>
+      <c r="I156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>173</v>
+      </c>
+      <c r="B157" t="str">
+        <f>"Advisory (2/6)"</f>
+        <v>Advisory (2/6)</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>17</v>
+      </c>
+      <c r="G157" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" t="s">
+        <v>11</v>
+      </c>
+      <c r="I157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>147</v>
+      </c>
+      <c r="B158" t="s">
+        <v>40</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>14</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158" t="s">
+        <v>11</v>
+      </c>
+      <c r="H158" t="s">
+        <v>11</v>
+      </c>
+      <c r="I158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>148</v>
+      </c>
+      <c r="B159" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>11</v>
+      </c>
+      <c r="H159" t="s">
+        <v>11</v>
+      </c>
+      <c r="I159" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>149</v>
+      </c>
+      <c r="B160" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>4</v>
+      </c>
+      <c r="E160">
+        <v>18</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" t="s">
+        <v>11</v>
+      </c>
+      <c r="I160" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>150</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>6</v>
+      </c>
+      <c r="F161">
+        <v>8</v>
+      </c>
+      <c r="G161" t="s">
+        <v>11</v>
+      </c>
+      <c r="H161" t="s">
+        <v>11</v>
+      </c>
+      <c r="I161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>151</v>
+      </c>
+      <c r="B162" t="s">
+        <v>40</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>4</v>
+      </c>
+      <c r="E162">
+        <v>13</v>
+      </c>
+      <c r="F162">
+        <v>20</v>
+      </c>
+      <c r="G162" t="s">
+        <v>11</v>
+      </c>
+      <c r="H162" t="s">
+        <v>11</v>
+      </c>
+      <c r="I162" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>152</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B163" t="s">
         <v>18</v>
       </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143">
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
         <v>2</v>
       </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
         <v>4</v>
       </c>
-      <c r="G143" t="s">
-        <v>11</v>
-      </c>
-      <c r="H143" t="s">
-        <v>11</v>
-      </c>
-      <c r="I143" t="s">
+      <c r="G163" t="s">
+        <v>11</v>
+      </c>
+      <c r="H163" t="s">
+        <v>11</v>
+      </c>
+      <c r="I163" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I163">
+    <sortCondition ref="A133"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>